--- a/apps/load_data/2016/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/11/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY1116\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY1116\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA0BC2-44D4-4EE4-9DE5-F8637EA80A45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A656F-C8F1-48B1-9175-8ABCAD690ED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$248</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$246</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9995" uniqueCount="2640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9983" uniqueCount="2639">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6878,9 +6879,6 @@
   </si>
   <si>
     <t>0131A         1</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    102642    1026421081    296920    2969201082    159880    1598802001         0     385992006     42600     426002026    191297    1912972027      3068      30682086      2500      25002180       250       2502182       100       100</t>
@@ -8801,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="N251" sqref="N251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD254" sqref="AD254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45497,12 +45495,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -45567,10 +45560,10 @@
         <v>112</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2287</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>115</v>
@@ -45579,7 +45572,7 @@
         <v>102</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>119</v>
@@ -45600,13 +45593,13 @@
         <v>108</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45641,19 +45634,19 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2293</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2294</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="Q210" s="3">
         <v>27241</v>
@@ -45679,12 +45672,7 @@
       <c r="AB210" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -45731,7 +45719,7 @@
         <v>108</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BB210" s="1">
         <v>11</v>
@@ -45749,7 +45737,7 @@
         <v>112</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1585</v>
@@ -45764,13 +45752,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>119</v>
@@ -45794,13 +45782,13 @@
         <v>108</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1885</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45835,19 +45823,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="Q211" s="3">
         <v>25223</v>
@@ -45873,12 +45861,7 @@
       <c r="AB211" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45925,7 +45908,7 @@
         <v>108</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BB211" s="1">
         <v>11</v>
@@ -45946,10 +45929,10 @@
         <v>112</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2308</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>115</v>
@@ -45961,13 +45944,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>119</v>
@@ -45991,13 +45974,13 @@
         <v>108</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2313</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46032,19 +46015,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2316</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="Q212" s="3">
         <v>27018</v>
@@ -46067,12 +46050,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -46122,7 +46100,7 @@
         <v>108</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BB212" s="1">
         <v>11</v>
@@ -46140,7 +46118,7 @@
         <v>112</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>179</v>
@@ -46152,7 +46130,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>119</v>
@@ -46170,13 +46148,13 @@
         <v>108</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1151</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46211,19 +46189,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="Q213" s="3">
         <v>29037</v>
@@ -46246,12 +46224,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -46301,7 +46274,7 @@
         <v>108</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BB213" s="1">
         <v>11</v>
@@ -46319,7 +46292,7 @@
         <v>112</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>828</v>
@@ -46331,7 +46304,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>119</v>
@@ -46352,10 +46325,10 @@
         <v>647</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2331</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46390,19 +46363,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="Q214" s="3">
         <v>26647</v>
@@ -46425,12 +46398,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46480,7 +46448,7 @@
         <v>108</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BB214" s="1">
         <v>11</v>
@@ -46498,7 +46466,7 @@
         <v>112</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>305</v>
@@ -46510,7 +46478,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>119</v>
@@ -46528,13 +46496,13 @@
         <v>108</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2339</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2339</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2340</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46569,19 +46537,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2343</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="Q215" s="3">
         <v>25405</v>
@@ -46610,12 +46578,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -46662,7 +46625,7 @@
         <v>108</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BB215" s="1">
         <v>11</v>
@@ -46671,7 +46634,7 @@
         <v>16</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>110</v>
@@ -46683,7 +46646,7 @@
         <v>112</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>253</v>
@@ -46698,13 +46661,13 @@
         <v>116</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>119</v>
@@ -46722,13 +46685,13 @@
         <v>108</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2352</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46763,19 +46726,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="Q216" s="3">
         <v>28845</v>
@@ -46798,12 +46761,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46853,7 +46811,7 @@
         <v>108</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BB216" s="1">
         <v>11</v>
@@ -46871,10 +46829,10 @@
         <v>112</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>115</v>
@@ -46883,7 +46841,7 @@
         <v>102</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>119</v>
@@ -46901,13 +46859,13 @@
         <v>108</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2363</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46942,19 +46900,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="Q217" s="3">
         <v>21425</v>
@@ -46977,12 +46935,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -47032,7 +46985,7 @@
         <v>108</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BB217" s="1">
         <v>11</v>
@@ -47050,10 +47003,10 @@
         <v>112</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2370</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>115</v>
@@ -47065,7 +47018,7 @@
         <v>154</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>119</v>
@@ -47083,13 +47036,13 @@
         <v>108</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47124,19 +47077,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="Q218" s="3">
         <v>23039</v>
@@ -47159,12 +47112,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -47211,7 +47159,7 @@
         <v>108</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BB218" s="1">
         <v>11</v>
@@ -47220,7 +47168,7 @@
         <v>16</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>110</v>
@@ -47232,10 +47180,10 @@
         <v>112</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>115</v>
@@ -47247,13 +47195,13 @@
         <v>205</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>119</v>
@@ -47271,13 +47219,13 @@
         <v>108</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47312,19 +47260,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="Q219" s="3">
         <v>23286</v>
@@ -47350,12 +47298,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47405,7 +47348,7 @@
         <v>108</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BB219" s="1">
         <v>11</v>
@@ -47426,7 +47369,7 @@
         <v>112</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>179</v>
@@ -47438,7 +47381,7 @@
         <v>102</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>119</v>
@@ -47459,13 +47402,13 @@
         <v>108</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47500,19 +47443,19 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2397</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2398</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2399</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="Q220" s="3">
         <v>26907</v>
@@ -47535,12 +47478,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -47587,7 +47525,7 @@
         <v>108</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BB220" s="1">
         <v>11</v>
@@ -47608,10 +47546,10 @@
         <v>112</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>115</v>
@@ -47623,13 +47561,13 @@
         <v>116</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>119</v>
@@ -47647,13 +47585,13 @@
         <v>108</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1704</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47688,19 +47626,19 @@
         <v>88</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="Q221" s="3">
         <v>26349</v>
@@ -47745,7 +47683,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47790,13 +47728,13 @@
         <v>112</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>119</v>
@@ -47820,10 +47758,10 @@
         <v>2171</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47858,19 +47796,19 @@
         <v>88</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="Q222" s="3">
         <v>30589</v>
@@ -47918,7 +47856,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47963,13 +47901,13 @@
         <v>112</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>119</v>
@@ -47990,13 +47928,13 @@
         <v>108</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48031,19 +47969,19 @@
         <v>88</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="Q223" s="3">
         <v>27354</v>
@@ -48091,7 +48029,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48136,13 +48074,13 @@
         <v>112</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>119</v>
@@ -48163,13 +48101,13 @@
         <v>108</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48204,19 +48142,19 @@
         <v>88</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="Q224" s="3">
         <v>13756</v>
@@ -48306,13 +48244,13 @@
         <v>112</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>119</v>
@@ -48333,10 +48271,10 @@
         <v>108</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>196</v>
@@ -48374,19 +48312,19 @@
         <v>88</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="Q225" s="3">
         <v>26074</v>
@@ -48434,7 +48372,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48479,13 +48417,13 @@
         <v>112</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>119</v>
@@ -48509,13 +48447,13 @@
         <v>108</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1176</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48550,19 +48488,19 @@
         <v>88</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="Q226" s="3">
         <v>28808</v>
@@ -48607,7 +48545,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48652,13 +48590,13 @@
         <v>112</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>119</v>
@@ -48679,13 +48617,13 @@
         <v>108</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2362</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48720,10 +48658,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -48789,7 +48727,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -48807,7 +48745,7 @@
         <v>219</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48821,7 +48759,7 @@
         <v>86</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>88</v>
@@ -48836,16 +48774,16 @@
         <v>91</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48926,7 +48864,7 @@
         <v>219</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -48961,19 +48899,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="Q229" s="3">
         <v>28642</v>
@@ -49048,7 +48986,7 @@
         <v>108</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BB229" s="1">
         <v>11</v>
@@ -49066,7 +49004,7 @@
         <v>112</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1786</v>
@@ -49081,7 +49019,7 @@
         <v>154</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>119</v>
@@ -49099,13 +49037,13 @@
         <v>108</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49140,19 +49078,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="Q230" s="3">
         <v>28239</v>
@@ -49224,7 +49162,7 @@
         <v>108</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BB230" s="1">
         <v>11</v>
@@ -49242,7 +49180,7 @@
         <v>112</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1829</v>
@@ -49257,13 +49195,13 @@
         <v>205</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>119</v>
@@ -49281,13 +49219,13 @@
         <v>108</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2485</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49322,19 +49260,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="Q231" s="3">
         <v>25589</v>
@@ -49406,7 +49344,7 @@
         <v>108</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BB231" s="1">
         <v>11</v>
@@ -49424,7 +49362,7 @@
         <v>112</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1829</v>
@@ -49439,13 +49377,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>119</v>
@@ -49463,13 +49401,13 @@
         <v>108</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49504,19 +49442,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="Q232" s="3">
         <v>29170</v>
@@ -49591,7 +49529,7 @@
         <v>108</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BB232" s="1">
         <v>11</v>
@@ -49609,7 +49547,7 @@
         <v>112</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>115</v>
@@ -49618,7 +49556,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>119</v>
@@ -49636,13 +49574,13 @@
         <v>108</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>830</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49677,19 +49615,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="Q233" s="3">
         <v>27250</v>
@@ -49719,7 +49657,7 @@
         <v>103</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1818</v>
@@ -49764,7 +49702,7 @@
         <v>108</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BB233" s="1">
         <v>11</v>
@@ -49782,7 +49720,7 @@
         <v>112</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>2217</v>
@@ -49794,7 +49732,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>119</v>
@@ -49815,10 +49753,10 @@
         <v>1503</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49853,19 +49791,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="Q234" s="3">
         <v>27999</v>
@@ -49940,7 +49878,7 @@
         <v>108</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BB234" s="1">
         <v>11</v>
@@ -49958,10 +49896,10 @@
         <v>112</v>
       </c>
       <c r="BH234" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="BI234" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="BI234" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>115</v>
@@ -49970,7 +49908,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>119</v>
@@ -49994,7 +49932,7 @@
         <v>902</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50029,19 +49967,19 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2526</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2527</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="Q235" s="3">
         <v>29305</v>
@@ -50074,7 +50012,7 @@
         <v>621</v>
       </c>
       <c r="AH235" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="AI235" s="1" t="s">
         <v>108</v>
@@ -50116,7 +50054,7 @@
         <v>108</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BB235" s="1">
         <v>11</v>
@@ -50134,10 +50072,10 @@
         <v>112</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>115</v>
@@ -50146,7 +50084,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>119</v>
@@ -50164,13 +50102,13 @@
         <v>108</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50205,19 +50143,19 @@
         <v>88</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="R236" s="1" t="s">
         <v>132</v>
@@ -50253,7 +50191,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50292,13 +50230,13 @@
         <v>112</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>119</v>
@@ -50316,13 +50254,13 @@
         <v>108</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>295</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50357,19 +50295,19 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="Q237" s="3">
         <v>23125</v>
@@ -50402,7 +50340,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>103</v>
@@ -50456,7 +50394,7 @@
         <v>16</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>110</v>
@@ -50468,7 +50406,7 @@
         <v>112</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>115</v>
@@ -50480,13 +50418,13 @@
         <v>205</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>119</v>
@@ -50507,7 +50445,7 @@
         <v>108</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>284</v>
@@ -50527,7 +50465,7 @@
         <v>86</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>88</v>
@@ -50542,7 +50480,7 @@
         <v>91</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>93</v>
@@ -50551,10 +50489,10 @@
         <v>246</v>
       </c>
       <c r="L238" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="M238" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="M238" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>248</v>
@@ -50584,7 +50522,7 @@
         <v>42582</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>103</v>
@@ -50635,10 +50573,10 @@
         <v>250</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>115</v>
@@ -50712,16 +50650,16 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="M239" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="M239" s="1" t="s">
-        <v>2556</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="Q239" s="3">
         <v>17060</v>
@@ -50754,7 +50692,7 @@
         <v>42628</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>103</v>
@@ -50805,16 +50743,16 @@
         <v>108</v>
       </c>
       <c r="AZ239" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BD239" s="1" t="s">
         <v>217</v>
       </c>
       <c r="BH239" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BI239" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="BI239" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>115</v>
@@ -50823,7 +50761,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>119</v>
@@ -50847,7 +50785,7 @@
         <v>123</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50882,19 +50820,19 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="Q240" s="3">
         <v>30023</v>
@@ -50981,7 +50919,7 @@
         <v>112</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>115</v>
@@ -50993,13 +50931,13 @@
         <v>116</v>
       </c>
       <c r="BR240" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BS240" s="3">
         <v>37747</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>119</v>
@@ -51023,7 +50961,7 @@
         <v>636</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="241" spans="1:84" x14ac:dyDescent="0.25">
@@ -51058,19 +50996,19 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="Q241" s="3">
         <v>26205</v>
@@ -51157,7 +51095,7 @@
         <v>112</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>115</v>
@@ -51166,7 +51104,7 @@
         <v>102</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>119</v>
@@ -51184,13 +51122,13 @@
         <v>108</v>
       </c>
       <c r="CC241" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CD241" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="CD241" s="1" t="s">
+      <c r="CE241" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2585</v>
       </c>
     </row>
     <row r="242" spans="1:84" x14ac:dyDescent="0.25">
@@ -51225,19 +51163,19 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="Q242" s="3">
         <v>31662</v>
@@ -51267,7 +51205,7 @@
         <v>621</v>
       </c>
       <c r="AH242" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="AI242" s="1" t="s">
         <v>108</v>
@@ -51324,7 +51262,7 @@
         <v>112</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>115</v>
@@ -51333,7 +51271,7 @@
         <v>102</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>119</v>
@@ -51351,13 +51289,13 @@
         <v>108</v>
       </c>
       <c r="CC242" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CD242" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="CD242" s="1" t="s">
+      <c r="CE242" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="243" spans="1:84" x14ac:dyDescent="0.25">
@@ -51392,19 +51330,19 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="Q243" s="3">
         <v>29117</v>
@@ -51434,7 +51372,7 @@
         <v>621</v>
       </c>
       <c r="AH243" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="AJ243" s="1" t="s">
         <v>106</v>
@@ -51491,7 +51429,7 @@
         <v>112</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>115</v>
@@ -51503,13 +51441,13 @@
         <v>99</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BS243" s="3">
         <v>37334</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>119</v>
@@ -51530,10 +51468,10 @@
         <v>507</v>
       </c>
       <c r="CD243" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="CE243" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="CE243" s="1" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="244" spans="1:84" x14ac:dyDescent="0.25">
@@ -51568,19 +51506,19 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="Q244" s="3">
         <v>30007</v>
@@ -51667,7 +51605,7 @@
         <v>112</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>115</v>
@@ -51679,13 +51617,13 @@
         <v>99</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BS244" s="3">
         <v>37904</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>119</v>
@@ -51706,10 +51644,10 @@
         <v>902</v>
       </c>
       <c r="CD244" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="CE244" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="245" spans="1:84" x14ac:dyDescent="0.25">
@@ -51744,19 +51682,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="Q245" s="3">
         <v>26221</v>
@@ -51840,7 +51778,7 @@
         <v>112</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>115</v>
@@ -51852,13 +51790,13 @@
         <v>116</v>
       </c>
       <c r="BR245" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BS245" s="3">
         <v>36111</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>119</v>
@@ -51876,13 +51814,13 @@
         <v>108</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="246" spans="1:84" x14ac:dyDescent="0.25">
@@ -51917,19 +51855,19 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="Q246" s="3">
         <v>27571</v>
@@ -52016,7 +51954,7 @@
         <v>112</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>115</v>
@@ -52028,13 +51966,13 @@
         <v>116</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BS246" s="3">
         <v>37785</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>119</v>
@@ -52052,13 +51990,13 @@
         <v>108</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="CD246" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CE246" s="1" t="s">
         <v>2630</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2631</v>
       </c>
     </row>
     <row r="247" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -52093,14 +52031,14 @@
         <v>93</v>
       </c>
       <c r="K247" s="4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L247" s="4" t="s">
         <v>2586</v>
-      </c>
-      <c r="L247" s="4" t="s">
-        <v>2587</v>
       </c>
       <c r="M247" s="4"/>
       <c r="N247" s="4" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="O247" s="4" t="s">
         <v>97</v>
@@ -52141,7 +52079,7 @@
         <v>621</v>
       </c>
       <c r="AH247" s="4" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="AI247" s="4" t="s">
         <v>108</v>
@@ -52205,7 +52143,7 @@
         <v>112</v>
       </c>
       <c r="BH247" s="4" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BI247" s="4"/>
       <c r="BJ247" s="4"/>
@@ -52220,7 +52158,7 @@
       <c r="BQ247" s="4"/>
       <c r="BR247" s="4"/>
       <c r="BT247" s="4" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BU247" s="4" t="s">
         <v>119</v>
@@ -52241,13 +52179,13 @@
         <v>108</v>
       </c>
       <c r="CC247" s="4" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CD247" s="4" t="s">
         <v>2592</v>
       </c>
-      <c r="CD247" s="4" t="s">
+      <c r="CE247" s="4" t="s">
         <v>2593</v>
-      </c>
-      <c r="CE247" s="4" t="s">
-        <v>2594</v>
       </c>
       <c r="CF247" s="4"/>
     </row>
@@ -52283,16 +52221,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="4" t="s">
+        <v>2632</v>
+      </c>
+      <c r="L248" s="4" t="s">
         <v>2633</v>
-      </c>
-      <c r="L248" s="4" t="s">
-        <v>2634</v>
       </c>
       <c r="M248" s="4" t="s">
         <v>107</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="O248" s="4" t="s">
         <v>97</v>
@@ -52391,7 +52329,7 @@
         <v>112</v>
       </c>
       <c r="BH248" s="4" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BI248" s="4"/>
       <c r="BJ248" s="4"/>
@@ -52408,7 +52346,7 @@
       <c r="BQ248" s="4"/>
       <c r="BR248" s="4"/>
       <c r="BT248" s="4" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BU248" s="4" t="s">
         <v>119</v>
@@ -52432,14 +52370,15 @@
         <v>1191</v>
       </c>
       <c r="CD248" s="4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="CE248" s="4" t="s">
         <v>2638</v>
-      </c>
-      <c r="CE248" s="4" t="s">
-        <v>2639</v>
       </c>
       <c r="CF248" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF248" xr:uid="{851D172E-BD47-4227-B0F8-409574C6B782}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>